--- a/required-files/molecules_classes_specification.xlsx
+++ b/required-files/molecules_classes_specification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Beatson\negative DESI ibds and imzMLs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tm6\Documents\GitHub\adhoc-data-processing-pipeline\required-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37470" windowHeight="17820"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="37470" windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Lipids</t>
   </si>
   <si>
-    <t>Kingdom</t>
-  </si>
-  <si>
-    <t>Super Class</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Sub Class</t>
-  </si>
-  <si>
     <t>Organic compounds</t>
   </si>
   <si>
@@ -72,6 +60,21 @@
   </si>
   <si>
     <t>Steroids and steroid derivatives</t>
+  </si>
+  <si>
+    <t>HMDB Kingdom</t>
+  </si>
+  <si>
+    <t>HMDB Super Class</t>
+  </si>
+  <si>
+    <t>HMDB Class</t>
+  </si>
+  <si>
+    <t>HMDB Sub Class</t>
+  </si>
+  <si>
+    <t>Your peak list (this will be the string seen in front of "mva" in the outputs folder)</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,9 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -577,6 +579,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,7 +909,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,155 +917,158 @@
     <col min="1" max="16384" width="30.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
